--- a/ig/ch-epr-fhir/StructureDefinition-ch-ext-author-authorrole.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-ext-author-authorrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-ballot</t>
+    <t>4.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/ch-epr-fhir/StructureDefinition-ch-ext-author-authorrole.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-ext-author-authorrole.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="116">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot</t>
+    <t>4.0.1-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2020-07-30</t>
+    <t>2024-11-19T17:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,9 +263,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Extension Author AuthorRole</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -905,10 +902,10 @@
         <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -968,10 +965,10 @@
         <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>78</v>
@@ -979,10 +976,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -993,25 +990,25 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1062,13 +1059,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -1077,15 +1074,15 @@
         <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1108,13 +1105,13 @@
         <v>78</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>31</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1153,19 +1150,19 @@
         <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
@@ -1177,7 +1174,7 @@
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -1185,10 +1182,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1196,31 +1193,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="I5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1270,13 +1267,13 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
@@ -1285,15 +1282,15 @@
         <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1301,10 +1298,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -1316,13 +1313,13 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1361,56 +1358,56 @@
         <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>78</v>
@@ -1419,13 +1416,13 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1452,11 +1449,11 @@
         <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>78</v>
@@ -1474,22 +1471,22 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-epr-fhir/StructureDefinition-ch-ext-author-authorrole.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-ext-author-authorrole.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot-2</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-19T17:31:05+00:00</t>
+    <t>2024-12-18T12:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -645,63 +642,63 @@
         <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -760,146 +757,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>73</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>74</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>75</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>76</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -910,583 +907,583 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="S2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG2" t="s" s="2">
+      <c r="AH2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="S3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF3" t="s" s="2">
+      <c r="AH3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="S4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AG4" t="s" s="2">
+      <c r="AH4" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH4" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="I5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AE6" t="s" s="2">
+      <c r="AH6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AF6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="D7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AB7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-epr-fhir/StructureDefinition-ch-ext-author-authorrole.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-ext-author-authorrole.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="119">
   <si>
     <t>Property</t>
   </si>
@@ -33,70 +33,76 @@
     <t>Version</t>
   </si>
   <si>
+    <t>5.0.0-ballot</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ChExtAuthorAuthorRole</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>CH Extension Author AuthorRole</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-05-22T13:39:01+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>eHealth Suisse</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>eHealth Suisse (https://www.e-health-suisse.ch)</t>
+  </si>
+  <si>
+    <t>eHealth Suisse (https://www.e-health-suisse.ch(Work))</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Extension Author AuthorRole for SubmissionSet and DocumentEntry</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>CC0-1.0</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
     <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>ChExtAuthorAuthorRole</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>CH Extension Author AuthorRole</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2024-12-18T12:16:22+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>eHealth Suisse</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>eHealth Suisse (https://www.e-health-suisse.ch)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Extension Author AuthorRole for SubmissionSet and DocumentEntry</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>CC0-1.0</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
   </si>
   <si>
     <t>Kind</t>
@@ -262,6 +268,12 @@
 </t>
   </si>
   <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -270,6 +282,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -332,9 +347,6 @@
   </si>
   <si>
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -519,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -609,40 +621,40 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -695,10 +707,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>39</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -717,773 +737,773 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.17578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.87109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.49609375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.15234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AA7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-epr-fhir/StructureDefinition-ch-ext-author-authorrole.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-ext-author-authorrole.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="117">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -268,10 +268,7 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -282,9 +279,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
 </t>
   </si>
   <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -347,6 +338,9 @@
   </si>
   <si>
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -919,10 +913,10 @@
         <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -982,21 +976,21 @@
         <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AJ2" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1007,25 +1001,25 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1076,13 +1070,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -1091,15 +1085,15 @@
         <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1122,13 +1116,13 @@
         <v>79</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>32</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1167,19 +1161,19 @@
         <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
@@ -1191,18 +1185,18 @@
         <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1210,31 +1204,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="I5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1284,13 +1278,13 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
@@ -1299,15 +1293,15 @@
         <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1315,10 +1309,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -1330,13 +1324,13 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1375,56 +1369,56 @@
         <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" hidden="true">
-      <c r="A7" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>79</v>
@@ -1433,13 +1427,13 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1466,11 +1460,11 @@
         <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>79</v>
@@ -1488,32 +1482,32 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AK7">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
